--- a/templates/schedule_template2.xlsx
+++ b/templates/schedule_template2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter.kazarinoff\Documents\schedule\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter.kazarinoff\Documents\door-schedule\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -297,24 +297,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -365,52 +352,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -432,6 +377,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,30 +712,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34">
         <v>2018</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -798,19 +779,19 @@
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="19"/>
@@ -819,368 +800,248 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="40">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
-        <v>0.3125</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="40">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="41">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>0.375</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="40">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
-        <v>0.39583333333333398</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="40">
+        <v>0.4375</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="40">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
-        <v>0.4375</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="40">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="40">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="40">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="40">
+        <v>0.5625</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="40">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
-        <v>0.5625</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="41">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="40">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="40">
+        <v>0.6875</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="41">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
-        <v>0.6875</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
-        <v>0.8125</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
-        <v>0.875</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+    <row r="26" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="23"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A2:H2"/>
